--- a/ParseMatrix.xlsx
+++ b/ParseMatrix.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justins.ACAD.004\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8070"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7932"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Pgm</t>
   </si>
@@ -83,9 +83,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>equal</t>
-  </si>
-  <si>
     <t>kwdinput</t>
   </si>
   <si>
@@ -126,12 +123,6 @@
   </si>
   <si>
     <t>brace2</t>
-  </si>
-  <si>
-    <t>eps</t>
-  </si>
-  <si>
-    <t>//CHECK</t>
   </si>
 </sst>
 </file>
@@ -262,6 +253,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -297,6 +305,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -449,15 +474,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>15</v>
       </c>
@@ -465,7 +509,7 @@
         <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
         <v>17</v>
@@ -512,87 +556,54 @@
       <c r="S1" t="s">
         <v>31</v>
       </c>
-      <c r="T1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>2</v>
+      <c r="D3">
+        <v>3</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="I3">
+      <c r="H3">
         <v>2</v>
       </c>
-      <c r="U3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="F4">
         <v>4</v>
       </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
       <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="J4">
-        <v>4</v>
-      </c>
-      <c r="N4">
-        <v>4</v>
-      </c>
-      <c r="O4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="F5">
         <v>6</v>
       </c>
-      <c r="H5">
+      <c r="G5">
         <v>7</v>
       </c>
-      <c r="J5">
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="L5">
         <v>6</v>
       </c>
       <c r="M5">
@@ -601,41 +612,29 @@
       <c r="N5">
         <v>6</v>
       </c>
-      <c r="O5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>8</v>
       </c>
-      <c r="I6">
-        <v>8</v>
-      </c>
-      <c r="J6">
-        <v>8</v>
-      </c>
-      <c r="M6">
-        <v>8</v>
-      </c>
-      <c r="N6">
-        <v>8</v>
-      </c>
-      <c r="O6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="F7">
         <v>9</v>
       </c>
+      <c r="I7">
+        <v>9</v>
+      </c>
       <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7">
         <v>9</v>
       </c>
       <c r="L7">
@@ -647,44 +646,26 @@
       <c r="N7">
         <v>9</v>
       </c>
-      <c r="O7">
-        <v>9</v>
-      </c>
-      <c r="U7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="F8">
+      <c r="K8">
         <v>11</v>
       </c>
-      <c r="J8">
-        <v>11</v>
-      </c>
-      <c r="L8">
-        <v>11</v>
-      </c>
-      <c r="M8">
-        <v>11</v>
-      </c>
-      <c r="N8">
-        <v>11</v>
-      </c>
-      <c r="O8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="F9">
         <v>12</v>
       </c>
-      <c r="J9">
+      <c r="I9">
+        <v>12</v>
+      </c>
+      <c r="L9">
         <v>12</v>
       </c>
       <c r="M9">
@@ -693,34 +674,19 @@
       <c r="N9">
         <v>12</v>
       </c>
-      <c r="O9">
-        <v>12</v>
-      </c>
-      <c r="P9">
-        <v>12</v>
-      </c>
-      <c r="Q9">
-        <v>12</v>
-      </c>
-      <c r="U9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="F10">
-        <v>14</v>
+      <c r="E10">
+        <v>13</v>
       </c>
       <c r="J10">
-        <v>14</v>
-      </c>
-      <c r="M10">
-        <v>14</v>
-      </c>
-      <c r="N10">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="K10">
+        <v>13</v>
       </c>
       <c r="O10">
         <v>14</v>
@@ -728,21 +694,18 @@
       <c r="P10">
         <v>14</v>
       </c>
-      <c r="Q10">
-        <v>14</v>
-      </c>
-      <c r="U10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="F11">
         <v>15</v>
       </c>
-      <c r="J11">
+      <c r="I11">
+        <v>15</v>
+      </c>
+      <c r="L11">
         <v>15</v>
       </c>
       <c r="M11">
@@ -751,39 +714,24 @@
       <c r="N11">
         <v>15</v>
       </c>
-      <c r="O11">
-        <v>15</v>
-      </c>
-      <c r="R11">
-        <v>15</v>
-      </c>
-      <c r="S11">
-        <v>15</v>
-      </c>
-      <c r="T11">
-        <v>15</v>
-      </c>
-      <c r="U11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="F12">
-        <v>17</v>
-      </c>
       <c r="J12">
-        <v>17</v>
-      </c>
-      <c r="M12">
-        <v>17</v>
-      </c>
-      <c r="N12">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="K12">
+        <v>16</v>
       </c>
       <c r="O12">
+        <v>16</v>
+      </c>
+      <c r="P12">
+        <v>16</v>
+      </c>
+      <c r="Q12">
         <v>17</v>
       </c>
       <c r="R12">
@@ -792,22 +740,19 @@
       <c r="S12">
         <v>17</v>
       </c>
-      <c r="T12">
-        <v>17</v>
-      </c>
-      <c r="U12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="F13">
         <v>18</v>
       </c>
-      <c r="J13">
+      <c r="I13">
         <v>19</v>
+      </c>
+      <c r="L13">
+        <v>18</v>
       </c>
       <c r="M13">
         <v>18</v>
@@ -815,52 +760,46 @@
       <c r="N13">
         <v>18</v>
       </c>
-      <c r="O13">
-        <v>18</v>
-      </c>
-      <c r="V13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="F14">
         <v>20</v>
       </c>
+      <c r="L14">
+        <v>21</v>
+      </c>
       <c r="M14">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N14">
-        <v>22</v>
-      </c>
-      <c r="O14">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
+      <c r="O15">
+        <v>24</v>
+      </c>
       <c r="P15">
-        <v>24</v>
-      </c>
-      <c r="Q15">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
+      <c r="Q16">
+        <v>26</v>
+      </c>
       <c r="R16">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S16">
-        <v>27</v>
-      </c>
-      <c r="T16">
         <v>28</v>
       </c>
     </row>

--- a/ParseMatrix.xlsx
+++ b/ParseMatrix.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justins.ACAD.006\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7932"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -253,23 +253,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -305,23 +288,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -477,31 +443,31 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>15</v>
       </c>
@@ -557,7 +523,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -565,7 +531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -579,7 +545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -590,7 +556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -613,7 +579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -621,7 +587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -647,15 +613,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
       <c r="K8">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -675,7 +644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -695,7 +664,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -715,10 +684,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
+      <c r="E12">
+        <v>16</v>
+      </c>
       <c r="J12">
         <v>16</v>
       </c>
@@ -741,7 +713,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -761,7 +733,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -778,7 +750,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -789,7 +761,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
